--- a/data/pca/factorExposure/factorExposure_2010-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-22.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01465597727163705</v>
+        <v>-0.01628382875643104</v>
       </c>
       <c r="C2">
-        <v>-0.003954818267165431</v>
+        <v>-0.0008481372607790732</v>
       </c>
       <c r="D2">
-        <v>0.01088267681883111</v>
+        <v>0.008086097327853667</v>
       </c>
       <c r="E2">
-        <v>0.008719194247930427</v>
+        <v>-0.002481301761300206</v>
       </c>
       <c r="F2">
-        <v>0.02786339989371499</v>
+        <v>-0.01320085840767196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1217675470470429</v>
+        <v>-0.09508290962739675</v>
       </c>
       <c r="C4">
-        <v>-0.1046999712759576</v>
+        <v>-0.01785922138120701</v>
       </c>
       <c r="D4">
-        <v>-0.003217190802742461</v>
+        <v>0.08108403140057971</v>
       </c>
       <c r="E4">
-        <v>-0.1589897503534554</v>
+        <v>0.0274049410335549</v>
       </c>
       <c r="F4">
-        <v>0.06656586917304864</v>
+        <v>0.04044249406207086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.131783125854532</v>
+        <v>-0.1519359031933201</v>
       </c>
       <c r="C6">
-        <v>-0.0662391217525313</v>
+        <v>-0.02437565831556218</v>
       </c>
       <c r="D6">
-        <v>0.0002312695345987974</v>
+        <v>-0.02357111129910386</v>
       </c>
       <c r="E6">
-        <v>-0.07107582738117837</v>
+        <v>0.01439523689319052</v>
       </c>
       <c r="F6">
-        <v>-0.00608214321349257</v>
+        <v>0.03919503526303283</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07536959781858368</v>
+        <v>-0.06228140451051737</v>
       </c>
       <c r="C7">
-        <v>-0.07970676265965668</v>
+        <v>-0.0003402251023861213</v>
       </c>
       <c r="D7">
-        <v>0.01218569952477347</v>
+        <v>0.05197785643928923</v>
       </c>
       <c r="E7">
-        <v>-0.01351808474046646</v>
+        <v>0.01323461350414382</v>
       </c>
       <c r="F7">
-        <v>-0.001823537988115616</v>
+        <v>0.05834471085646054</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04116857801278765</v>
+        <v>-0.05990235627296003</v>
       </c>
       <c r="C8">
-        <v>-0.01469953188706173</v>
+        <v>0.01252549646815935</v>
       </c>
       <c r="D8">
-        <v>0.008234334111084988</v>
+        <v>0.02768140735312094</v>
       </c>
       <c r="E8">
-        <v>-0.09905086292331582</v>
+        <v>0.01175477379419024</v>
       </c>
       <c r="F8">
-        <v>0.06225886324979964</v>
+        <v>-0.02107781957159474</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08683563557916443</v>
+        <v>-0.07254401511362434</v>
       </c>
       <c r="C9">
-        <v>-0.08020812187489255</v>
+        <v>-0.014289569587207</v>
       </c>
       <c r="D9">
-        <v>-0.02194172632717134</v>
+        <v>0.07928229336592983</v>
       </c>
       <c r="E9">
-        <v>-0.1282986002073432</v>
+        <v>0.021114027667754</v>
       </c>
       <c r="F9">
-        <v>0.05683992759987806</v>
+        <v>0.06239616069363823</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1372101096445779</v>
+        <v>-0.09195847045795481</v>
       </c>
       <c r="C10">
-        <v>0.1771935768450368</v>
+        <v>-0.01367944789145026</v>
       </c>
       <c r="D10">
-        <v>0.001369631769539242</v>
+        <v>-0.1733125705910252</v>
       </c>
       <c r="E10">
-        <v>0.02556541285568844</v>
+        <v>-0.03541429174171896</v>
       </c>
       <c r="F10">
-        <v>-0.0241988181910229</v>
+        <v>-0.04939432409222002</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06704250974947114</v>
+        <v>-0.08843559505037238</v>
       </c>
       <c r="C11">
-        <v>-0.05940059074626822</v>
+        <v>-0.0134778578955413</v>
       </c>
       <c r="D11">
-        <v>-0.04814064060048473</v>
+        <v>0.1104832010869961</v>
       </c>
       <c r="E11">
-        <v>-0.09398390954621588</v>
+        <v>0.0414569439844073</v>
       </c>
       <c r="F11">
-        <v>0.03469358930260336</v>
+        <v>0.02733245425960674</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07214400366220783</v>
+        <v>-0.09381707954690369</v>
       </c>
       <c r="C12">
-        <v>-0.06607902892677808</v>
+        <v>-0.01147963417833681</v>
       </c>
       <c r="D12">
-        <v>-0.05590797665114665</v>
+        <v>0.1171176000631889</v>
       </c>
       <c r="E12">
-        <v>-0.113111272831028</v>
+        <v>0.03896994013186702</v>
       </c>
       <c r="F12">
-        <v>-0.004653351416554226</v>
+        <v>0.02914391485805189</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04085009314454143</v>
+        <v>-0.04426143546052056</v>
       </c>
       <c r="C13">
-        <v>-0.03881117201705162</v>
+        <v>-0.005022658005461556</v>
       </c>
       <c r="D13">
-        <v>0.02546477620495236</v>
+        <v>0.04360696169262117</v>
       </c>
       <c r="E13">
-        <v>-0.03577536255177487</v>
+        <v>-0.01460561177234284</v>
       </c>
       <c r="F13">
-        <v>0.02557671526257721</v>
+        <v>0.01987491750709529</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03941432442566026</v>
+        <v>-0.02199823972439286</v>
       </c>
       <c r="C14">
-        <v>-0.0370948429927111</v>
+        <v>-0.01518396212444819</v>
       </c>
       <c r="D14">
-        <v>-0.01273491587184227</v>
+        <v>0.02971624883105619</v>
       </c>
       <c r="E14">
-        <v>-0.06004532271653302</v>
+        <v>0.0149659885283032</v>
       </c>
       <c r="F14">
-        <v>0.02581483291929044</v>
+        <v>0.02797582649821597</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02366176029642376</v>
+        <v>-0.03255889005834223</v>
       </c>
       <c r="C15">
-        <v>-0.01580775285486348</v>
+        <v>-0.006194683823357579</v>
       </c>
       <c r="D15">
-        <v>0.06986521103014139</v>
+        <v>0.04147602567893069</v>
       </c>
       <c r="E15">
-        <v>-0.01439995700162789</v>
+        <v>0.007218418182672285</v>
       </c>
       <c r="F15">
-        <v>0.03474901025722906</v>
+        <v>0.03482654161946284</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07885047369002365</v>
+        <v>-0.07546250891582695</v>
       </c>
       <c r="C16">
-        <v>-0.07420138410222377</v>
+        <v>-0.005296700834536553</v>
       </c>
       <c r="D16">
-        <v>-0.04347906755983192</v>
+        <v>0.1150132574901478</v>
       </c>
       <c r="E16">
-        <v>-0.09812265950242903</v>
+        <v>0.05640815687973817</v>
       </c>
       <c r="F16">
-        <v>0.001517572531702183</v>
+        <v>0.03555946773308952</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01766276328982776</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004009325420436728</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02112455707070843</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01017077862262119</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02554808014640776</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04749347496841524</v>
+        <v>-0.06147149714392702</v>
       </c>
       <c r="C20">
-        <v>-0.02361777394341052</v>
+        <v>-0.002954668476739178</v>
       </c>
       <c r="D20">
-        <v>0.03240559510125593</v>
+        <v>0.0684200711451332</v>
       </c>
       <c r="E20">
-        <v>-0.07470212153354383</v>
+        <v>0.05038475347591625</v>
       </c>
       <c r="F20">
-        <v>0.006071399774983625</v>
+        <v>0.03239617790599104</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03516146643053113</v>
+        <v>-0.03794313496467942</v>
       </c>
       <c r="C21">
-        <v>-0.02437619839525932</v>
+        <v>-0.008025007985009611</v>
       </c>
       <c r="D21">
-        <v>-0.02253683477768334</v>
+        <v>0.0336510111880681</v>
       </c>
       <c r="E21">
-        <v>-0.06325438230090696</v>
+        <v>-0.01280486148603086</v>
       </c>
       <c r="F21">
-        <v>0.02877700579153793</v>
+        <v>-0.01810753078171251</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05730229073727629</v>
+        <v>-0.04295422314694524</v>
       </c>
       <c r="C22">
-        <v>0.003325252673576859</v>
+        <v>-0.00107557866198244</v>
       </c>
       <c r="D22">
-        <v>0.6473522230142188</v>
+        <v>-0.000663233846158061</v>
       </c>
       <c r="E22">
-        <v>-0.02881106198260086</v>
+        <v>0.03190949276544798</v>
       </c>
       <c r="F22">
-        <v>-0.1133798853732101</v>
+        <v>-0.02406572219957204</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05831048192867443</v>
+        <v>-0.04304759895714572</v>
       </c>
       <c r="C23">
-        <v>0.001592912689784643</v>
+        <v>-0.001110152324710295</v>
       </c>
       <c r="D23">
-        <v>0.6496525841566301</v>
+        <v>-0.0004508369769842654</v>
       </c>
       <c r="E23">
-        <v>-0.034263993950413</v>
+        <v>0.03232951994777666</v>
       </c>
       <c r="F23">
-        <v>-0.1122628493435298</v>
+        <v>-0.02352028522570261</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07740957500076498</v>
+        <v>-0.08191898488315526</v>
       </c>
       <c r="C24">
-        <v>-0.07313885632792544</v>
+        <v>-0.00546659637944224</v>
       </c>
       <c r="D24">
-        <v>-0.03575556075098249</v>
+        <v>0.1152460503296087</v>
       </c>
       <c r="E24">
-        <v>-0.1000470377405139</v>
+        <v>0.04492124556097329</v>
       </c>
       <c r="F24">
-        <v>0.01190565921444907</v>
+        <v>0.02777268670431295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07719354704020336</v>
+        <v>-0.08620498260222224</v>
       </c>
       <c r="C25">
-        <v>-0.05638530410519897</v>
+        <v>-0.007415687408622224</v>
       </c>
       <c r="D25">
-        <v>-0.06155081105204789</v>
+        <v>0.1008962568789275</v>
       </c>
       <c r="E25">
-        <v>-0.1038282871577276</v>
+        <v>0.0269690226145349</v>
       </c>
       <c r="F25">
-        <v>0.01192784190958003</v>
+        <v>0.03758223296718912</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04160063183073482</v>
+        <v>-0.05647229180222194</v>
       </c>
       <c r="C26">
-        <v>-0.009946383120177411</v>
+        <v>-0.01583366278168015</v>
       </c>
       <c r="D26">
-        <v>0.01439000143661076</v>
+        <v>0.03176162710814967</v>
       </c>
       <c r="E26">
-        <v>-0.07998118861679068</v>
+        <v>0.02233185169554195</v>
       </c>
       <c r="F26">
-        <v>-0.04839314216549106</v>
+        <v>-0.001807316884547738</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1586695353252078</v>
+        <v>-0.1384406757261361</v>
       </c>
       <c r="C28">
-        <v>0.2692632788172868</v>
+        <v>-0.01060308903136916</v>
       </c>
       <c r="D28">
-        <v>-0.01988073326926542</v>
+        <v>-0.2728809276688781</v>
       </c>
       <c r="E28">
-        <v>-0.02927473239683134</v>
+        <v>-0.06637142868512347</v>
       </c>
       <c r="F28">
-        <v>0.006208147100702541</v>
+        <v>0.04543176294897776</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03858477177865793</v>
+        <v>-0.02728730422684205</v>
       </c>
       <c r="C29">
-        <v>-0.03208916250024719</v>
+        <v>-0.00935968794186574</v>
       </c>
       <c r="D29">
-        <v>-0.01536795242685757</v>
+        <v>0.02853576840298856</v>
       </c>
       <c r="E29">
-        <v>-0.05713031800901796</v>
+        <v>0.007706506194179506</v>
       </c>
       <c r="F29">
-        <v>0.02596923832471592</v>
+        <v>-0.005232072945281769</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07790870286073474</v>
+        <v>-0.06425739128750445</v>
       </c>
       <c r="C30">
-        <v>-0.06590758750869401</v>
+        <v>-0.007162135478096125</v>
       </c>
       <c r="D30">
-        <v>-0.01956631285779048</v>
+        <v>0.07665028158067219</v>
       </c>
       <c r="E30">
-        <v>-0.2269634168694558</v>
+        <v>0.02125604915821885</v>
       </c>
       <c r="F30">
-        <v>-0.07438348845535599</v>
+        <v>0.1242125653222241</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02663721601287649</v>
+        <v>-0.04854567591070939</v>
       </c>
       <c r="C31">
-        <v>-0.05732893145443739</v>
+        <v>-0.01535989290018195</v>
       </c>
       <c r="D31">
-        <v>0.00366718394684943</v>
+        <v>0.02863393025287471</v>
       </c>
       <c r="E31">
-        <v>-0.04016789335862626</v>
+        <v>0.02601466637813762</v>
       </c>
       <c r="F31">
-        <v>0.02041026010310654</v>
+        <v>-0.00234170474086277</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05110097037164423</v>
+        <v>-0.04870314396502691</v>
       </c>
       <c r="C32">
-        <v>-0.01536892857868071</v>
+        <v>-0.001071967881752728</v>
       </c>
       <c r="D32">
-        <v>-0.05009811711321647</v>
+        <v>0.02652363486089566</v>
       </c>
       <c r="E32">
-        <v>-0.02908299594682147</v>
+        <v>0.02535150022959979</v>
       </c>
       <c r="F32">
-        <v>0.0910121996732657</v>
+        <v>0.005669791440061472</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09751992268804689</v>
+        <v>-0.09210777706411645</v>
       </c>
       <c r="C33">
-        <v>-0.07995286638801015</v>
+        <v>-0.01058332208131442</v>
       </c>
       <c r="D33">
-        <v>-0.02106144794954823</v>
+        <v>0.09034297000750095</v>
       </c>
       <c r="E33">
-        <v>-0.0635357758393733</v>
+        <v>0.04387523530194591</v>
       </c>
       <c r="F33">
-        <v>-0.003368323972924641</v>
+        <v>0.04406580670288156</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0672693588469699</v>
+        <v>-0.06904373552971568</v>
       </c>
       <c r="C34">
-        <v>-0.05200527892208342</v>
+        <v>-0.01330275726446341</v>
       </c>
       <c r="D34">
-        <v>-0.04538570749790381</v>
+        <v>0.09463802203247748</v>
       </c>
       <c r="E34">
-        <v>-0.09119609863050149</v>
+        <v>0.02778457369587302</v>
       </c>
       <c r="F34">
-        <v>0.02188962069590843</v>
+        <v>0.05299721756436247</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01694197556131045</v>
+        <v>-0.02438604849375424</v>
       </c>
       <c r="C35">
-        <v>-0.01640656634773311</v>
+        <v>-0.002700168041381719</v>
       </c>
       <c r="D35">
-        <v>-0.0005534656610795206</v>
+        <v>0.01033482327792001</v>
       </c>
       <c r="E35">
-        <v>-0.0310752329061911</v>
+        <v>0.01138588439837182</v>
       </c>
       <c r="F35">
-        <v>0.006115558494965844</v>
+        <v>0.0125029490849934</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02593790300904562</v>
+        <v>-0.02534975796731264</v>
       </c>
       <c r="C36">
-        <v>-0.01949482778871854</v>
+        <v>-0.007383944199271266</v>
       </c>
       <c r="D36">
-        <v>0.01382797021777095</v>
+        <v>0.03808666250657598</v>
       </c>
       <c r="E36">
-        <v>-0.08549700440082549</v>
+        <v>0.01466297314852995</v>
       </c>
       <c r="F36">
-        <v>0.003954220238809403</v>
+        <v>0.009486673158837276</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02402267173549628</v>
+        <v>-0.003010299584824393</v>
       </c>
       <c r="C38">
-        <v>-0.04985502334654947</v>
+        <v>-0.0005651132755305974</v>
       </c>
       <c r="D38">
-        <v>0.02871697644285817</v>
+        <v>0.003132997544255815</v>
       </c>
       <c r="E38">
-        <v>0.09922001916931295</v>
+        <v>0.004127027329425293</v>
       </c>
       <c r="F38">
-        <v>-0.08895537192678676</v>
+        <v>-0.003235489202765126</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09933637878018473</v>
+        <v>-0.1118432015767687</v>
       </c>
       <c r="C39">
-        <v>-0.08842779289383626</v>
+        <v>-0.01934847963642928</v>
       </c>
       <c r="D39">
-        <v>-0.1344092981614957</v>
+        <v>0.1471656953089729</v>
       </c>
       <c r="E39">
-        <v>-0.1615806199993755</v>
+        <v>0.04983163443673297</v>
       </c>
       <c r="F39">
-        <v>-0.09689779789102973</v>
+        <v>0.03956233866233781</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02790553270120682</v>
+        <v>-0.03718646647902395</v>
       </c>
       <c r="C40">
-        <v>-0.05850689203332227</v>
+        <v>-0.007748161568012119</v>
       </c>
       <c r="D40">
-        <v>0.0260113692373649</v>
+        <v>0.02829811481739275</v>
       </c>
       <c r="E40">
-        <v>-0.0377917879540333</v>
+        <v>0.0009494271719165572</v>
       </c>
       <c r="F40">
-        <v>0.0819981665721872</v>
+        <v>-0.0180435413814027</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03404613555138065</v>
+        <v>-0.02635992125102461</v>
       </c>
       <c r="C41">
-        <v>-0.02398693229722035</v>
+        <v>-0.006848640035739275</v>
       </c>
       <c r="D41">
-        <v>-0.02022761546415179</v>
+        <v>0.01115016209099809</v>
       </c>
       <c r="E41">
-        <v>-0.007326290949241973</v>
+        <v>0.01107564838887315</v>
       </c>
       <c r="F41">
-        <v>-0.0258908838505104</v>
+        <v>-0.01221054075126683</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04771633940049803</v>
+        <v>-0.04327017895927155</v>
       </c>
       <c r="C43">
-        <v>-0.04582908800916115</v>
+        <v>-0.007273072008384993</v>
       </c>
       <c r="D43">
-        <v>0.009695151733460824</v>
+        <v>0.02160120354825687</v>
       </c>
       <c r="E43">
-        <v>-0.02849475616375481</v>
+        <v>0.02584887062693622</v>
       </c>
       <c r="F43">
-        <v>-0.05258105609758757</v>
+        <v>-0.01170475371020601</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09573732235582115</v>
+        <v>-0.07368802061462741</v>
       </c>
       <c r="C44">
-        <v>-0.08652113349656877</v>
+        <v>-0.0232126125388341</v>
       </c>
       <c r="D44">
-        <v>0.08235489221693125</v>
+        <v>0.09972871883416845</v>
       </c>
       <c r="E44">
-        <v>-0.08562765117460173</v>
+        <v>0.06665121206330986</v>
       </c>
       <c r="F44">
-        <v>0.07884746355565267</v>
+        <v>0.181543894779237</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03726259107569164</v>
+        <v>-0.02390864025788286</v>
       </c>
       <c r="C46">
-        <v>-0.03862915329148884</v>
+        <v>-0.004366488105191743</v>
       </c>
       <c r="D46">
-        <v>0.04309973630619383</v>
+        <v>0.01254162969470454</v>
       </c>
       <c r="E46">
-        <v>-0.03710404120032999</v>
+        <v>0.02168415173350751</v>
       </c>
       <c r="F46">
-        <v>0.04404374593730596</v>
+        <v>-0.001755484050770562</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05457604072215429</v>
+        <v>-0.05303914901741646</v>
       </c>
       <c r="C47">
-        <v>-0.04738161839547091</v>
+        <v>-0.003574542328638576</v>
       </c>
       <c r="D47">
-        <v>-0.0005531866710523373</v>
+        <v>0.01236317734048058</v>
       </c>
       <c r="E47">
-        <v>-0.02350480706520483</v>
+        <v>0.02265113115561378</v>
       </c>
       <c r="F47">
-        <v>-0.01497534634435186</v>
+        <v>-0.04732203180915701</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04589839260875452</v>
+        <v>-0.04817444485274695</v>
       </c>
       <c r="C48">
-        <v>-0.0163005987334289</v>
+        <v>-0.003568363170182133</v>
       </c>
       <c r="D48">
-        <v>-0.01443051031293825</v>
+        <v>0.04463629962056544</v>
       </c>
       <c r="E48">
-        <v>-0.08744288198045068</v>
+        <v>-0.009360340028748417</v>
       </c>
       <c r="F48">
-        <v>0.04744060921731647</v>
+        <v>0.0176937722704224</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2340810812041819</v>
+        <v>-0.2057703939660717</v>
       </c>
       <c r="C49">
-        <v>-0.0485677732237978</v>
+        <v>-0.01669660367987438</v>
       </c>
       <c r="D49">
-        <v>-0.02511061226041</v>
+        <v>-0.006966653149070869</v>
       </c>
       <c r="E49">
-        <v>0.3124119817497059</v>
+        <v>0.04338484074642145</v>
       </c>
       <c r="F49">
-        <v>-0.04269673671232797</v>
+        <v>0.03313384316157764</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03577401328585752</v>
+        <v>-0.04880547868474702</v>
       </c>
       <c r="C50">
-        <v>-0.05029608868955534</v>
+        <v>-0.01142481483577209</v>
       </c>
       <c r="D50">
-        <v>-0.01163045735218545</v>
+        <v>0.02635301659931968</v>
       </c>
       <c r="E50">
-        <v>-0.06158497865608414</v>
+        <v>0.02850942835443766</v>
       </c>
       <c r="F50">
-        <v>-0.01428002115752953</v>
+        <v>0.00650335098051056</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02860938530695558</v>
+        <v>-0.003326517384618488</v>
       </c>
       <c r="C51">
-        <v>-0.002317933826069361</v>
+        <v>-0.0007880576827535366</v>
       </c>
       <c r="D51">
-        <v>-0.0005688960715365507</v>
+        <v>-0.001515562079083686</v>
       </c>
       <c r="E51">
-        <v>0.04909311736707653</v>
+        <v>0.001419681355393785</v>
       </c>
       <c r="F51">
-        <v>0.007058520311593955</v>
+        <v>0.004594819183125297</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03176819564964509</v>
+        <v>-0.1418477083266381</v>
       </c>
       <c r="C52">
-        <v>-0.02211850867507223</v>
+        <v>-0.01280271563101824</v>
       </c>
       <c r="D52">
-        <v>-0.02325078418857309</v>
+        <v>0.049862508295366</v>
       </c>
       <c r="E52">
-        <v>-0.01017882186295287</v>
+        <v>0.01668404984490855</v>
       </c>
       <c r="F52">
-        <v>-0.02253080701344704</v>
+        <v>0.03019290338811025</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1467812622793374</v>
+        <v>-0.1729408260194887</v>
       </c>
       <c r="C53">
-        <v>-0.06442484715849646</v>
+        <v>-0.01563799536670302</v>
       </c>
       <c r="D53">
-        <v>0.02061735573377637</v>
+        <v>0.01651579686169173</v>
       </c>
       <c r="E53">
-        <v>0.06022846182497914</v>
+        <v>0.03841826007302989</v>
       </c>
       <c r="F53">
-        <v>-0.08828599711407809</v>
+        <v>0.05857966366750635</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06257077531065519</v>
+        <v>-0.02265715729821983</v>
       </c>
       <c r="C54">
-        <v>-0.04347350544307046</v>
+        <v>-0.01315981030105722</v>
       </c>
       <c r="D54">
-        <v>-0.000557496439523894</v>
+        <v>0.03076203903772927</v>
       </c>
       <c r="E54">
-        <v>-0.1320885290720811</v>
+        <v>0.01368585738780735</v>
       </c>
       <c r="F54">
-        <v>0.05846201773372427</v>
+        <v>0.0006213378257563365</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08296742403820888</v>
+        <v>-0.114454065373739</v>
       </c>
       <c r="C55">
-        <v>-0.06066496114124755</v>
+        <v>-0.01457733909825132</v>
       </c>
       <c r="D55">
-        <v>-0.03261022006344419</v>
+        <v>0.01489040146176798</v>
       </c>
       <c r="E55">
-        <v>0.01082947858067903</v>
+        <v>0.03037048759997759</v>
       </c>
       <c r="F55">
-        <v>-0.02466919474544151</v>
+        <v>0.04553978940216296</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1400139420327075</v>
+        <v>-0.1779580729866422</v>
       </c>
       <c r="C56">
-        <v>-0.1024115810284033</v>
+        <v>-0.01302911508189477</v>
       </c>
       <c r="D56">
-        <v>-0.015404260165841</v>
+        <v>0.01178020218699713</v>
       </c>
       <c r="E56">
-        <v>0.03513252359338642</v>
+        <v>0.04318601895919618</v>
       </c>
       <c r="F56">
-        <v>-0.05825985238423328</v>
+        <v>0.02794404691550875</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03108244699624828</v>
+        <v>-0.04733040180235053</v>
       </c>
       <c r="C58">
-        <v>-0.0400385029401762</v>
+        <v>-0.003363867977822284</v>
       </c>
       <c r="D58">
-        <v>0.02877856205656114</v>
+        <v>0.06397957188661611</v>
       </c>
       <c r="E58">
-        <v>-0.04602706917485565</v>
+        <v>0.01501495631542556</v>
       </c>
       <c r="F58">
-        <v>-0.01157891739262942</v>
+        <v>-0.04240268460539811</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2155532258520928</v>
+        <v>-0.1699194116862786</v>
       </c>
       <c r="C59">
-        <v>0.2315836249398211</v>
+        <v>-0.01236401699341802</v>
       </c>
       <c r="D59">
-        <v>-0.05638965632494577</v>
+        <v>-0.2310349608727732</v>
       </c>
       <c r="E59">
-        <v>0.01082547058616433</v>
+        <v>-0.04743201616339981</v>
       </c>
       <c r="F59">
-        <v>0.04416745935354876</v>
+        <v>-0.0305832584514629</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2316727300870531</v>
+        <v>-0.2393674166187322</v>
       </c>
       <c r="C60">
-        <v>-0.1415782473520306</v>
+        <v>0.004287865860614247</v>
       </c>
       <c r="D60">
-        <v>-0.06756840149512221</v>
+        <v>0.05153836810604864</v>
       </c>
       <c r="E60">
-        <v>0.1138384531741591</v>
+        <v>0.01314717746063576</v>
       </c>
       <c r="F60">
-        <v>0.008910013003125413</v>
+        <v>-0.04330464679557272</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09599059047050411</v>
+        <v>-0.08602763785295367</v>
       </c>
       <c r="C61">
-        <v>-0.07361307240190967</v>
+        <v>-0.01511557574503095</v>
       </c>
       <c r="D61">
-        <v>-0.07861708724746336</v>
+        <v>0.1072480689968945</v>
       </c>
       <c r="E61">
-        <v>-0.1391987434385096</v>
+        <v>0.03303732685841733</v>
       </c>
       <c r="F61">
-        <v>-0.02020331634219684</v>
+        <v>0.02492084651806794</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1295013275501302</v>
+        <v>-0.1689878362278656</v>
       </c>
       <c r="C62">
-        <v>-0.0736845138662197</v>
+        <v>-0.01702592231583464</v>
       </c>
       <c r="D62">
-        <v>0.005710833596550594</v>
+        <v>0.01316451140324835</v>
       </c>
       <c r="E62">
-        <v>0.06755796512229308</v>
+        <v>0.03909302911437038</v>
       </c>
       <c r="F62">
-        <v>-0.06139832119779752</v>
+        <v>0.01072782294993257</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04887623455288455</v>
+        <v>-0.04271111307065756</v>
       </c>
       <c r="C63">
-        <v>-0.02238385663327691</v>
+        <v>-0.004416480856258125</v>
       </c>
       <c r="D63">
-        <v>-0.01174092936747801</v>
+        <v>0.04680462919694851</v>
       </c>
       <c r="E63">
-        <v>-0.07752146782109638</v>
+        <v>0.01374595416686256</v>
       </c>
       <c r="F63">
-        <v>-0.0062981597586961</v>
+        <v>0.01098488790016744</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09449492141311312</v>
+        <v>-0.1121604561002368</v>
       </c>
       <c r="C64">
-        <v>-0.05586913367926047</v>
+        <v>-0.01209912755546998</v>
       </c>
       <c r="D64">
-        <v>0.001004512199709119</v>
+        <v>0.03930514225448998</v>
       </c>
       <c r="E64">
-        <v>-0.06637461105151808</v>
+        <v>0.01908752488826658</v>
       </c>
       <c r="F64">
-        <v>-0.01271175330438124</v>
+        <v>0.01754477168063858</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1199748247329614</v>
+        <v>-0.142907310198972</v>
       </c>
       <c r="C65">
-        <v>-0.04085866150082263</v>
+        <v>-0.03063744861582415</v>
       </c>
       <c r="D65">
-        <v>-0.01536173082773076</v>
+        <v>-0.04663961014516798</v>
       </c>
       <c r="E65">
-        <v>-0.08820922993976218</v>
+        <v>0.003417831999854236</v>
       </c>
       <c r="F65">
-        <v>-0.04685977100327978</v>
+        <v>0.04306217779922911</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1098217270324026</v>
+        <v>-0.1338717844713906</v>
       </c>
       <c r="C66">
-        <v>-0.1200336436559375</v>
+        <v>-0.01689222317220982</v>
       </c>
       <c r="D66">
-        <v>-0.1161669288335493</v>
+        <v>0.134521569740551</v>
       </c>
       <c r="E66">
-        <v>-0.1255884731794978</v>
+        <v>0.05915425332061517</v>
       </c>
       <c r="F66">
-        <v>-0.09580736244804383</v>
+        <v>0.04447285923539189</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07966141368203075</v>
+        <v>-0.06542932988235381</v>
       </c>
       <c r="C67">
-        <v>-0.05920964633855728</v>
+        <v>-0.004383294669517077</v>
       </c>
       <c r="D67">
-        <v>0.03729156495274955</v>
+        <v>0.05418990051358218</v>
       </c>
       <c r="E67">
-        <v>0.09766724102613916</v>
+        <v>0.02048676634942034</v>
       </c>
       <c r="F67">
-        <v>-0.1162670396469001</v>
+        <v>-0.04349474678189828</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1325565430075935</v>
+        <v>-0.111412436015039</v>
       </c>
       <c r="C68">
-        <v>0.2641108745747885</v>
+        <v>-0.021589041036762</v>
       </c>
       <c r="D68">
-        <v>-0.02999855858473785</v>
+        <v>-0.2705039653927269</v>
       </c>
       <c r="E68">
-        <v>-0.05766359195393912</v>
+        <v>-0.08617749327018744</v>
       </c>
       <c r="F68">
-        <v>-0.006165235109965939</v>
+        <v>0.05065628638411376</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04303758735268583</v>
+        <v>-0.04078157849450852</v>
       </c>
       <c r="C69">
-        <v>-0.01493629667672517</v>
+        <v>-0.001376779552937404</v>
       </c>
       <c r="D69">
-        <v>0.002166576166587405</v>
+        <v>0.00864815176457105</v>
       </c>
       <c r="E69">
-        <v>-0.01230732334668649</v>
+        <v>0.02573661240267166</v>
       </c>
       <c r="F69">
-        <v>-0.03693291724926125</v>
+        <v>-0.017436771297579</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05045646498747044</v>
+        <v>-0.06443489696400108</v>
       </c>
       <c r="C70">
-        <v>-0.0608174411835044</v>
+        <v>0.02674436861483734</v>
       </c>
       <c r="D70">
-        <v>-0.02606116641814286</v>
+        <v>0.02238414677409546</v>
       </c>
       <c r="E70">
-        <v>-0.04391346127169143</v>
+        <v>-0.04588453807844859</v>
       </c>
       <c r="F70">
-        <v>-0.001366924595225701</v>
+        <v>-0.3430951902800838</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1510270527776572</v>
+        <v>-0.1306671980761124</v>
       </c>
       <c r="C71">
-        <v>0.2741339296970527</v>
+        <v>-0.02551173157822866</v>
       </c>
       <c r="D71">
-        <v>-0.02537732650279494</v>
+        <v>-0.2869442173786149</v>
       </c>
       <c r="E71">
-        <v>-0.06365184594319709</v>
+        <v>-0.09349389503605697</v>
       </c>
       <c r="F71">
-        <v>-0.02094544041979538</v>
+        <v>0.05236873484266476</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1256049556009678</v>
+        <v>-0.1376182772898213</v>
       </c>
       <c r="C72">
-        <v>-0.02200820803274962</v>
+        <v>-0.02382839462313562</v>
       </c>
       <c r="D72">
-        <v>-0.0003404328514692571</v>
+        <v>0.006925883741641619</v>
       </c>
       <c r="E72">
-        <v>-0.03848647838882501</v>
+        <v>0.04205648224130693</v>
       </c>
       <c r="F72">
-        <v>-0.05433919607869492</v>
+        <v>0.02362434279858448</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2218233222721473</v>
+        <v>-0.2086106212039081</v>
       </c>
       <c r="C73">
-        <v>-0.1050043903693239</v>
+        <v>-0.01131438992145068</v>
       </c>
       <c r="D73">
-        <v>-0.1186362812513162</v>
+        <v>0.02051997059883955</v>
       </c>
       <c r="E73">
-        <v>0.5136067140523236</v>
+        <v>0.06968910993132188</v>
       </c>
       <c r="F73">
-        <v>-0.1647107304018341</v>
+        <v>0.02410851802616609</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09167741199460004</v>
+        <v>-0.0940584943750843</v>
       </c>
       <c r="C74">
-        <v>-0.0874937442717779</v>
+        <v>-0.01190958016330876</v>
       </c>
       <c r="D74">
-        <v>-0.0001676956136851396</v>
+        <v>0.02601341765350824</v>
       </c>
       <c r="E74">
-        <v>0.03925716088279828</v>
+        <v>0.05018967290357599</v>
       </c>
       <c r="F74">
-        <v>-0.1045613899505168</v>
+        <v>0.03922872301710083</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09294111523809685</v>
+        <v>-0.1306516707345824</v>
       </c>
       <c r="C75">
-        <v>-0.07001474591903545</v>
+        <v>-0.02628289243510381</v>
       </c>
       <c r="D75">
-        <v>-0.001374444525623603</v>
+        <v>0.03538634849186255</v>
       </c>
       <c r="E75">
-        <v>0.003033544001399844</v>
+        <v>0.06039239082113516</v>
       </c>
       <c r="F75">
-        <v>-0.009671581616888296</v>
+        <v>0.007157340870752365</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06397014488001</v>
+        <v>-0.007771112193205995</v>
       </c>
       <c r="C76">
-        <v>-0.06852461612641043</v>
+        <v>-0.001735690161970278</v>
       </c>
       <c r="D76">
-        <v>0.008297585736624249</v>
+        <v>0.003254382717249597</v>
       </c>
       <c r="E76">
-        <v>0.04988104144306831</v>
+        <v>0.008054731283207489</v>
       </c>
       <c r="F76">
-        <v>-0.01685988116649846</v>
+        <v>0.003934292403485185</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06723213898387267</v>
+        <v>-0.08098751571782871</v>
       </c>
       <c r="C77">
-        <v>-0.01950526719257178</v>
+        <v>-0.01175141424432339</v>
       </c>
       <c r="D77">
-        <v>-0.03577296603453113</v>
+        <v>0.1024643095377723</v>
       </c>
       <c r="E77">
-        <v>-0.1591171884933933</v>
+        <v>0.03034547751894101</v>
       </c>
       <c r="F77">
-        <v>0.0737982082226793</v>
+        <v>0.03502737801745786</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1737225706413473</v>
+        <v>-0.1091237433195856</v>
       </c>
       <c r="C78">
-        <v>-0.169553699266096</v>
+        <v>-0.04378608283688046</v>
       </c>
       <c r="D78">
-        <v>0.1692384578283413</v>
+        <v>0.1196334506875457</v>
       </c>
       <c r="E78">
-        <v>-0.03566394316193206</v>
+        <v>0.09211338474234329</v>
       </c>
       <c r="F78">
-        <v>0.6284134191018055</v>
+        <v>0.0744234323974803</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1289800792750798</v>
+        <v>-0.1627203017504644</v>
       </c>
       <c r="C79">
-        <v>-0.08614252205764479</v>
+        <v>-0.02010667840150755</v>
       </c>
       <c r="D79">
-        <v>0.01232355638674813</v>
+        <v>0.02091637002137407</v>
       </c>
       <c r="E79">
-        <v>0.01329172410666066</v>
+        <v>0.04956997692057766</v>
       </c>
       <c r="F79">
-        <v>-0.03564034807178724</v>
+        <v>0.004694768399150751</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07214668434230545</v>
+        <v>-0.08048667066303515</v>
       </c>
       <c r="C80">
-        <v>-0.05341456343201571</v>
+        <v>0.0008695932833935275</v>
       </c>
       <c r="D80">
-        <v>-0.08135729751595575</v>
+        <v>0.05733393432990185</v>
       </c>
       <c r="E80">
-        <v>-0.06366827600250924</v>
+        <v>0.03038344316071732</v>
       </c>
       <c r="F80">
-        <v>-0.04299474571080215</v>
+        <v>-0.0116027206250249</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1266130908548172</v>
+        <v>-0.1226927921058491</v>
       </c>
       <c r="C81">
-        <v>-0.06529758774178002</v>
+        <v>-0.03000996855374613</v>
       </c>
       <c r="D81">
-        <v>0.009081478018633541</v>
+        <v>0.02120284080111524</v>
       </c>
       <c r="E81">
-        <v>-0.06411828589725686</v>
+        <v>0.05969937737515612</v>
       </c>
       <c r="F81">
-        <v>-0.02762633377828839</v>
+        <v>-0.004262398960014444</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1184082394470337</v>
+        <v>-0.1623039294584766</v>
       </c>
       <c r="C82">
-        <v>-0.06512321700484491</v>
+        <v>-0.020465718427972</v>
       </c>
       <c r="D82">
-        <v>-0.006363609885889238</v>
+        <v>0.01924830069361598</v>
       </c>
       <c r="E82">
-        <v>0.003337564509208458</v>
+        <v>0.03625191912759564</v>
       </c>
       <c r="F82">
-        <v>-0.1007864595071676</v>
+        <v>0.05361448128175206</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08021345497082921</v>
+        <v>-0.06548091352329348</v>
       </c>
       <c r="C83">
-        <v>-0.08879558090395687</v>
+        <v>-0.004441700611189805</v>
       </c>
       <c r="D83">
-        <v>-0.01880544196147606</v>
+        <v>0.0466281634318653</v>
       </c>
       <c r="E83">
-        <v>-0.04197545233360919</v>
+        <v>0.003355757601506131</v>
       </c>
       <c r="F83">
-        <v>-0.08892662062867404</v>
+        <v>-0.03609250395141391</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0468573201393578</v>
+        <v>-0.06054684866869574</v>
       </c>
       <c r="C84">
-        <v>0.06579198508668828</v>
+        <v>-0.01167961396966229</v>
       </c>
       <c r="D84">
-        <v>-0.04648723476276446</v>
+        <v>0.06040281808951767</v>
       </c>
       <c r="E84">
-        <v>0.008583100332124964</v>
+        <v>-0.003761938196239928</v>
       </c>
       <c r="F84">
-        <v>0.2235543293053628</v>
+        <v>0.0158160911446068</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1183019101713238</v>
+        <v>-0.1382938618133273</v>
       </c>
       <c r="C85">
-        <v>-0.05488708856001321</v>
+        <v>-0.02555913815611349</v>
       </c>
       <c r="D85">
-        <v>0.001589707068878552</v>
+        <v>0.0170231947613451</v>
       </c>
       <c r="E85">
-        <v>0.01697423654893934</v>
+        <v>0.0406633611554825</v>
       </c>
       <c r="F85">
-        <v>-0.05365132111390442</v>
+        <v>0.04004263002885458</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08589149697177705</v>
+        <v>-0.0993820090746608</v>
       </c>
       <c r="C86">
-        <v>-0.00674164181384707</v>
+        <v>0.006872053955282102</v>
       </c>
       <c r="D86">
-        <v>0.02744000264906267</v>
+        <v>0.01540452755298447</v>
       </c>
       <c r="E86">
-        <v>0.2393363646499914</v>
+        <v>0.1290544262406269</v>
       </c>
       <c r="F86">
-        <v>0.4960552019968288</v>
+        <v>-0.8289225663514458</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1205982272363229</v>
+        <v>-0.100368364881214</v>
       </c>
       <c r="C87">
-        <v>-0.07415939462043271</v>
+        <v>-0.02594219071325263</v>
       </c>
       <c r="D87">
-        <v>0.01159376849179529</v>
+        <v>0.07193273989169502</v>
       </c>
       <c r="E87">
-        <v>-0.05884981261822659</v>
+        <v>-0.05279541399272298</v>
       </c>
       <c r="F87">
-        <v>0.01832448684851443</v>
+        <v>0.09388203008999674</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05883124134720719</v>
+        <v>-0.06187151381415295</v>
       </c>
       <c r="C88">
-        <v>-0.06232524104448914</v>
+        <v>-0.003448811209542041</v>
       </c>
       <c r="D88">
-        <v>-0.03653788873616406</v>
+        <v>0.05498241474035223</v>
       </c>
       <c r="E88">
-        <v>-0.02665169832819492</v>
+        <v>0.02622752122412332</v>
       </c>
       <c r="F88">
-        <v>-0.03774647885209416</v>
+        <v>0.006620303206947687</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2340892701967366</v>
+        <v>-0.1326468537141811</v>
       </c>
       <c r="C89">
-        <v>0.3688409106889218</v>
+        <v>-0.004606808294636835</v>
       </c>
       <c r="D89">
-        <v>0.03705645020807954</v>
+        <v>-0.2709467778876871</v>
       </c>
       <c r="E89">
-        <v>0.01421887021706859</v>
+        <v>-0.09228077379668546</v>
       </c>
       <c r="F89">
-        <v>0.04658402766661149</v>
+        <v>0.0328829378827413</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1564036355155555</v>
+        <v>-0.1425161908072117</v>
       </c>
       <c r="C90">
-        <v>0.2592808443866852</v>
+        <v>-0.02102178517617981</v>
       </c>
       <c r="D90">
-        <v>-0.02075068007439261</v>
+        <v>-0.2718889410202144</v>
       </c>
       <c r="E90">
-        <v>-0.01268637845080716</v>
+        <v>-0.1047760907921564</v>
       </c>
       <c r="F90">
-        <v>-0.01793114152712112</v>
+        <v>0.037434176509101</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07122069109470949</v>
+        <v>-0.1168829323440933</v>
       </c>
       <c r="C91">
-        <v>-0.07217678059383821</v>
+        <v>-0.01613328197521213</v>
       </c>
       <c r="D91">
-        <v>-0.0004979177306491137</v>
+        <v>-0.002725629756692318</v>
       </c>
       <c r="E91">
-        <v>0.009363859963010099</v>
+        <v>0.05901928365292222</v>
       </c>
       <c r="F91">
-        <v>0.005146434084751392</v>
+        <v>-0.03154690064719486</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1732167713702082</v>
+        <v>-0.1451233379835717</v>
       </c>
       <c r="C92">
-        <v>0.2924799126017854</v>
+        <v>-0.01246470675396191</v>
       </c>
       <c r="D92">
-        <v>0.01670993884919562</v>
+        <v>-0.3052841853028991</v>
       </c>
       <c r="E92">
-        <v>-0.06773575259074842</v>
+        <v>-0.1014315118594282</v>
       </c>
       <c r="F92">
-        <v>0.0295089922462516</v>
+        <v>0.02750333553873275</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1756876340392566</v>
+        <v>-0.1465484628229286</v>
       </c>
       <c r="C93">
-        <v>0.2984624459254915</v>
+        <v>-0.01766442303407872</v>
       </c>
       <c r="D93">
-        <v>-0.05106728271410325</v>
+        <v>-0.2765354562802214</v>
       </c>
       <c r="E93">
-        <v>-0.0304606525567609</v>
+        <v>-0.071634711494601</v>
       </c>
       <c r="F93">
-        <v>0.006319070182550455</v>
+        <v>0.02802501851948128</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1165160697918447</v>
+        <v>-0.1339441027968831</v>
       </c>
       <c r="C94">
-        <v>-0.08671797097796693</v>
+        <v>-0.0237439175714687</v>
       </c>
       <c r="D94">
-        <v>0.01666718421671493</v>
+        <v>0.04867067425487429</v>
       </c>
       <c r="E94">
-        <v>0.02670925201118844</v>
+        <v>0.06189191281058702</v>
       </c>
       <c r="F94">
-        <v>-0.03918020823531507</v>
+        <v>0.02593636946606534</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1360795536425574</v>
+        <v>-0.1270220741711884</v>
       </c>
       <c r="C95">
-        <v>-0.06870108492999608</v>
+        <v>-0.006306096563034881</v>
       </c>
       <c r="D95">
-        <v>0.006717145059318666</v>
+        <v>0.08965049699677824</v>
       </c>
       <c r="E95">
-        <v>-0.05076605295592831</v>
+        <v>0.04106289813518495</v>
       </c>
       <c r="F95">
-        <v>0.1270931901776182</v>
+        <v>-0.01039938450167526</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0001123495290935916</v>
+        <v>-0.09489997047941595</v>
       </c>
       <c r="C96">
-        <v>-0.001773544967295266</v>
+        <v>0.9894492876130454</v>
       </c>
       <c r="D96">
-        <v>-8.074970070037725e-05</v>
+        <v>-0.01473858932037166</v>
       </c>
       <c r="E96">
-        <v>0.001362639417315059</v>
+        <v>0.05980973399755662</v>
       </c>
       <c r="F96">
-        <v>0.00244833550503609</v>
+        <v>0.04985824594334132</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1212947265626194</v>
+        <v>-0.1874374220315384</v>
       </c>
       <c r="C97">
-        <v>0.0298607645713609</v>
+        <v>0.01262276566247236</v>
       </c>
       <c r="D97">
-        <v>0.02016896414067094</v>
+        <v>-0.01286019396643635</v>
       </c>
       <c r="E97">
-        <v>-0.2583886541235308</v>
+        <v>0.0157428644565548</v>
       </c>
       <c r="F97">
-        <v>-0.241595996315221</v>
+        <v>-0.1760217670930396</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.25316829097292</v>
+        <v>-0.206540488039408</v>
       </c>
       <c r="C98">
-        <v>-0.09412736291497349</v>
+        <v>-0.006972022089246993</v>
       </c>
       <c r="D98">
-        <v>0.07908039774254887</v>
+        <v>0.01389365890191611</v>
       </c>
       <c r="E98">
-        <v>0.2595179259987602</v>
+        <v>-0.08973093276278848</v>
       </c>
       <c r="F98">
-        <v>-0.07139796569444161</v>
+        <v>-0.1352471588080851</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06962474159594054</v>
+        <v>-0.05767805109716014</v>
       </c>
       <c r="C99">
-        <v>-0.06055664043880322</v>
+        <v>0.002959461932793296</v>
       </c>
       <c r="D99">
-        <v>0.01034533958866571</v>
+        <v>0.03347054747864</v>
       </c>
       <c r="E99">
-        <v>0.03048593963735658</v>
+        <v>0.02671226912681141</v>
       </c>
       <c r="F99">
-        <v>-0.003373783616520908</v>
+        <v>0.004423321454301257</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1236229076542283</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04731111146978519</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3257279151553223</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9049375987809881</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.0557214253601414</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03799093188568346</v>
+        <v>-0.02721923853569564</v>
       </c>
       <c r="C101">
-        <v>-0.03207474916942926</v>
+        <v>-0.009374845570571482</v>
       </c>
       <c r="D101">
-        <v>-0.01612369449037589</v>
+        <v>0.02825938217431719</v>
       </c>
       <c r="E101">
-        <v>-0.05404498201585697</v>
+        <v>0.007641126868755495</v>
       </c>
       <c r="F101">
-        <v>0.02679097640721842</v>
+        <v>-0.007705292133588622</v>
       </c>
     </row>
     <row r="102" spans="1:6">
